--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2719254.157677157</v>
+        <v>2800937.719109766</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261948</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9130883.362027222</v>
+        <v>9130856.882929629</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.644403348031597</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,13 +746,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>112.5484599448314</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>28.93353358602091</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.40110646040572</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>144.3312529957867</v>
+        <v>372.039630846422</v>
       </c>
       <c r="G5" t="n">
-        <v>387.3948401441547</v>
+        <v>372.039630846422</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>189.0437807884074</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663289</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078368</v>
+        <v>84.4580015512968</v>
       </c>
       <c r="S6" t="n">
-        <v>59.28713474283839</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.443212047161</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>64.00137801481722</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>15.83196785900288</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>106.7614206448858</v>
+        <v>66.8690242323346</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>11.67884460201102</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>38.14770907297703</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>109.6690920422038</v>
+        <v>60.51808258596496</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.6780064526356</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>94.64589759514801</v>
       </c>
       <c r="U19" t="n">
-        <v>245.5591000916435</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>110.3499369036732</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>60.32280852345892</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452401</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.0388904293851</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.1291651532053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.107731335945597</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.38718145721396</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.61524188852407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>129.3232997295248</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>185.0891193245234</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0.003094987734702954</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>110.5530139536553</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>255.5658160581002</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>39.69425409728629</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.8277167599791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.4627520174971</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4627520174971</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D2" t="n">
-        <v>306.4627520174971</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4627520174971</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187429</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>843.966258332007</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>843.966258332007</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U2" t="n">
-        <v>843.966258332007</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V2" t="n">
-        <v>843.966258332007</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W2" t="n">
-        <v>838.2648408087427</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X2" t="n">
-        <v>838.2648408087427</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y2" t="n">
-        <v>572.3637964131199</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.6790854529718</v>
+        <v>346.787280231586</v>
       </c>
       <c r="C3" t="n">
-        <v>283.6790854529718</v>
+        <v>346.787280231586</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7446757917206</v>
+        <v>197.8528705703347</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>197.8528705703347</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>51.31831259721966</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9337607940759</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>600.5536970360758</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>954.9030226480426</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>726.6826938902474</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="V3" t="n">
-        <v>491.5305856585047</v>
+        <v>601.0246369597876</v>
       </c>
       <c r="W3" t="n">
-        <v>491.5305856585047</v>
+        <v>346.787280231586</v>
       </c>
       <c r="X3" t="n">
-        <v>283.6790854529718</v>
+        <v>346.787280231586</v>
       </c>
       <c r="Y3" t="n">
-        <v>283.6790854529718</v>
+        <v>346.787280231586</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>905.0550422242733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>891.5185710521463</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>924.9408477296159</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>970.5690754315369</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>1020.546982284663</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1050.693372907661</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.968135806666</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>1052.968135806666</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.0886509892509</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="C5" t="n">
-        <v>568.0886509892509</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0886509892509</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="E5" t="n">
-        <v>568.0886509892509</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="F5" t="n">
-        <v>422.2995065490624</v>
+        <v>599.7585855934844</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153237</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153237</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931807</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817367</v>
+        <v>220.1747338456877</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923828</v>
+        <v>474.0852112039974</v>
       </c>
       <c r="M5" t="n">
-        <v>803.140442736569</v>
+        <v>773.2160860494158</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029482</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245513</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927383</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576619</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715788</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="S5" t="n">
-        <v>1431.555163715788</v>
+        <v>1166.509506436747</v>
       </c>
       <c r="T5" t="n">
-        <v>1208.530504709573</v>
+        <v>1166.509506436747</v>
       </c>
       <c r="U5" t="n">
-        <v>954.6884910533727</v>
+        <v>1166.509506436747</v>
       </c>
       <c r="V5" t="n">
-        <v>954.6884910533727</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="W5" t="n">
-        <v>954.6884910533727</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="X5" t="n">
-        <v>954.6884910533727</v>
+        <v>975.5561925090623</v>
       </c>
       <c r="Y5" t="n">
-        <v>954.6884910533727</v>
+        <v>975.5561925090623</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>594.1332770650559</v>
+        <v>406.7377172564425</v>
       </c>
       <c r="C6" t="n">
-        <v>419.680247783929</v>
+        <v>406.7377172564425</v>
       </c>
       <c r="D6" t="n">
-        <v>270.7458381226777</v>
+        <v>257.8033075951913</v>
       </c>
       <c r="E6" t="n">
-        <v>111.5083831172222</v>
+        <v>257.8033075951913</v>
       </c>
       <c r="F6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527265</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170046</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="L6" t="n">
-        <v>517.3192611265168</v>
+        <v>314.0811796138499</v>
       </c>
       <c r="M6" t="n">
-        <v>900.84015286923</v>
+        <v>682.4004141518078</v>
       </c>
       <c r="N6" t="n">
-        <v>1284.361044611943</v>
+        <v>1050.719648689766</v>
       </c>
       <c r="O6" t="n">
-        <v>1313.757655433464</v>
+        <v>1359.034530062085</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576619</v>
+        <v>1386.808705706684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576619</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697039</v>
+        <v>1402.847410707611</v>
       </c>
       <c r="S6" t="n">
-        <v>1406.165338007303</v>
+        <v>1234.174372107479</v>
       </c>
       <c r="T6" t="n">
-        <v>1406.165338007303</v>
+        <v>1033.017297458527</v>
       </c>
       <c r="U6" t="n">
-        <v>1177.960413055611</v>
+        <v>1033.017297458527</v>
       </c>
       <c r="V6" t="n">
-        <v>1177.960413055611</v>
+        <v>797.8651892267844</v>
       </c>
       <c r="W6" t="n">
-        <v>1177.960413055611</v>
+        <v>614.5892174619753</v>
       </c>
       <c r="X6" t="n">
-        <v>970.1089128500778</v>
+        <v>406.7377172564425</v>
       </c>
       <c r="Y6" t="n">
-        <v>762.3486140851239</v>
+        <v>406.7377172564425</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153237</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177037</v>
+        <v>32.09990175888155</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391495</v>
+        <v>90.61654790611263</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004513</v>
+        <v>162.7032697236687</v>
       </c>
       <c r="N7" t="n">
-        <v>253.299087345419</v>
+        <v>238.510546840002</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451038</v>
+        <v>292.5145415057945</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179084</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179084</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179084</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="S7" t="n">
-        <v>320.1897345916428</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="T7" t="n">
-        <v>320.1897345916428</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="U7" t="n">
-        <v>30.99158721153237</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="V7" t="n">
-        <v>30.99158721153237</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="W7" t="n">
-        <v>30.99158721153237</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="X7" t="n">
-        <v>30.99158721153237</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153237</v>
+        <v>94.41102704833722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.927233509</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="9">
@@ -4881,31 +4883,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>716.3321714771301</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>502.0437482952929</v>
       </c>
       <c r="T10" t="n">
-        <v>512.0323670265868</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U10" t="n">
-        <v>512.0323670265868</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5026,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5221,22 +5223,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1388.139409909212</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="U13" t="n">
-        <v>1388.139409909212</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="V13" t="n">
-        <v>1388.139409909212</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.722239872251</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="X13" t="n">
         <v>1098.722239872251</v>
@@ -5267,10 +5269,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5282,16 +5284,16 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>4037.959335809194</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>4317.499401027892</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.3210135240263</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C16" t="n">
-        <v>506.3210135240263</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="D16" t="n">
-        <v>506.3210135240263</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="E16" t="n">
-        <v>506.3210135240263</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="F16" t="n">
-        <v>359.4310660261159</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675564</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.3210135240263</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,10 +5542,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5552,10 +5554,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,19 +5597,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1292.239250356952</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>1292.239250356952</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>1037.554762151065</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5834,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5737601579244</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5737601579244</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5737601579244</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>269.683812660014</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502828</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.001039296941</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W25" t="n">
-        <v>896.58386925998</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619627</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184325</v>
+        <v>585.5099430858313</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6309,22 +6311,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1181.465520226627</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>926.7810320207402</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726145</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="E31" t="n">
         <v>208.7516828383384</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,19 +6782,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>4096.801546389153</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6886,22 +6888,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977332</v>
+        <v>4506.43956211741</v>
       </c>
       <c r="X34" t="n">
-        <v>4571.437402977332</v>
+        <v>4278.450011219393</v>
       </c>
       <c r="Y34" t="n">
-        <v>4571.437402977332</v>
+        <v>4278.450011219393</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7214,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7253,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.838040869491</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.838040869491</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5712828402495</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>675.0918571994924</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>524.9752177871567</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>377.0621242047636</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>377.0621242047636</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>208.8868025245842</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>705.9884528772101</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>705.9884528772101</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W43" t="n">
-        <v>416.5712828402495</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X43" t="n">
-        <v>416.5712828402495</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y43" t="n">
-        <v>416.5712828402495</v>
+        <v>844.0280401273993</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,7 +7672,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,10 +7733,10 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>4018.114580657032</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>4018.114580657032</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>4420.555624630802</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>4420.555624630802</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>4199.763045487271</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>337.2886456526676</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357574</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184956</v>
+        <v>450.1033532835734</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009047</v>
+        <v>437.6152809470458</v>
       </c>
       <c r="O6" t="n">
-        <v>105.3620886817107</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>113.7429398526945</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817182</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504729</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>295.3773510571272</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>295.3773510571272</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>19.14409596996984</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>111.8784690161855</v>
+        <v>161.0294784724243</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.81556201074198</v>
+        <v>4.676056667482641</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>126.9016634632412</v>
       </c>
       <c r="U19" t="n">
-        <v>40.67825230693387</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>141.7877064201548</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>106.1707599399187</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>81.92546197440768</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.4554881988895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.7242488459917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>50.04678118935522</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.2167382934132</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>157.1996986070662</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>33.49553402757144</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2342574108426</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>38.36081441388079</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>30.67153634047719</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642675</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>246.8287442393047</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.75693659211572</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>821893.169912584</v>
+        <v>821952.9601754812</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.9231595063</v>
+        <v>822513.2030245967</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914268</v>
@@ -26320,37 +26322,37 @@
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803343</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300986</v>
+        <v>106137.1517703837</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133505</v>
+        <v>316711.942425211</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124984</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414827</v>
+        <v>24677.24609313412</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179898</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312850.0144568525</v>
+        <v>308534.3126760299</v>
       </c>
       <c r="C4" t="n">
-        <v>273553.9419966741</v>
+        <v>278381.9556177378</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26430,34 +26432,34 @@
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.483517734</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773398</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773391</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773398</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773398</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773404</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683333</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.1756226717</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183454.5391527918</v>
+        <v>170824.3822518037</v>
       </c>
       <c r="C6" t="n">
-        <v>185006.1164419824</v>
+        <v>213503.8864884482</v>
       </c>
       <c r="D6" t="n">
-        <v>90003.7535575389</v>
+        <v>73913.70854567841</v>
       </c>
       <c r="E6" t="n">
-        <v>-27933.35036301261</v>
+        <v>-27933.35036301251</v>
       </c>
       <c r="F6" t="n">
-        <v>497226.6861138837</v>
+        <v>497226.6861138836</v>
       </c>
       <c r="G6" t="n">
-        <v>497226.6861138837</v>
+        <v>497226.6861138832</v>
       </c>
       <c r="H6" t="n">
         <v>497226.6861138835</v>
       </c>
       <c r="I6" t="n">
-        <v>497226.6861138839</v>
+        <v>497226.6861138837</v>
       </c>
       <c r="J6" t="n">
-        <v>428350.987382634</v>
+        <v>424971.9912427446</v>
       </c>
       <c r="K6" t="n">
-        <v>465273.7266897356</v>
+        <v>472549.4400207493</v>
       </c>
       <c r="L6" t="n">
-        <v>424616.7934520845</v>
+        <v>420730.5281757122</v>
       </c>
       <c r="M6" t="n">
-        <v>362425.6708800463</v>
+        <v>362425.6708800467</v>
       </c>
       <c r="N6" t="n">
-        <v>497226.6861138834</v>
+        <v>497226.6861138836</v>
       </c>
       <c r="O6" t="n">
-        <v>497226.6861138836</v>
+        <v>497226.6861138835</v>
       </c>
       <c r="P6" t="n">
         <v>497226.6861138837</v>
@@ -26698,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792245</v>
+        <v>117.5602045593889</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441547</v>
+        <v>372.039630846422</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924352</v>
+        <v>82.53894384026361</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378622</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924881</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104009</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516665</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924881</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104007</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924881</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104009</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>120.2661701862133</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.5965653693814</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45.09662051056959</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>108.3346548277184</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,25 +27545,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>4.046893058310451</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>262.5447927459247</v>
+        <v>34.83641489528941</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38215501850108</v>
+        <v>42.79050283128834</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>138.7084776817275</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>107.1710687467634</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.25177111375859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>115.8306021671201</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.1304301278448</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300345</v>
+        <v>78.37121764358479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463149</v>
+        <v>68.41045236322665</v>
       </c>
       <c r="R7" t="n">
-        <v>166.6896206108343</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>204.07475784496</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>258.5114711261217</v>
+        <v>298.403867538673</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>134.9863473781468</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>186.8873963851073</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28801,25 +28803,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28858,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30049,10 +30051,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.525742352479294</v>
+        <v>0.4726038374246788</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328572</v>
+        <v>4.840054050025493</v>
       </c>
       <c r="I5" t="n">
-        <v>20.268682043958</v>
+        <v>18.22005944231495</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873952</v>
+        <v>40.11165994662287</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918806</v>
+        <v>60.11698038480954</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887627</v>
+        <v>74.58043007439507</v>
       </c>
       <c r="M5" t="n">
-        <v>92.3157568497799</v>
+        <v>82.98509856819619</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876171</v>
+        <v>84.32788422127908</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129572</v>
+        <v>79.62842981288742</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446314</v>
+        <v>67.96102257646565</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.7742594662984</v>
+        <v>51.03589764869432</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892748</v>
+        <v>29.68720080262801</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712192</v>
+        <v>10.76945994531488</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978111</v>
+        <v>2.068823298326533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834352</v>
+        <v>0.0378083069939743</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439923</v>
+        <v>0.2528653456560442</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7167364076854</v>
+        <v>2.442146890941269</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782193</v>
+        <v>8.706109488596258</v>
       </c>
       <c r="J6" t="n">
-        <v>26.5763937138743</v>
+        <v>23.89022987182828</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272178</v>
+        <v>40.83220803078324</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945764</v>
+        <v>54.90394270483538</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767734</v>
+        <v>64.07031148486696</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658333</v>
+        <v>65.76606198270949</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709802</v>
+        <v>60.16309827106766</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323657</v>
+        <v>48.28619043496865</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.9073099043033</v>
+        <v>32.27803956128732</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185946</v>
+        <v>15.69983260134633</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235994</v>
+        <v>4.696862889707659</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082144</v>
+        <v>1.01922479235923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894687</v>
+        <v>0.01663587800368712</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953228</v>
+        <v>0.2119938115005374</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594781</v>
+        <v>1.884817705886598</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768438</v>
+        <v>6.375232076761619</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366932</v>
+        <v>14.987962473088</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672932</v>
+        <v>24.62982646342607</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821373</v>
+        <v>31.51769812072536</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344864</v>
+        <v>33.23099356094333</v>
       </c>
       <c r="N7" t="n">
-        <v>36.0884094843752</v>
+        <v>32.44083480898681</v>
       </c>
       <c r="O7" t="n">
-        <v>33.3334872371571</v>
+        <v>29.96436164736688</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925249</v>
+        <v>25.6396878927559</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.7475399370629</v>
+        <v>17.75159088846773</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633515</v>
+        <v>9.532012651651435</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009397</v>
+        <v>3.69447396951391</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889106</v>
+        <v>0.9057917400477506</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156308</v>
+        <v>0.01156329880912024</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>207.6969052949494</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412701</v>
+        <v>28.16237059201035</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953722</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693395</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153396</v>
+        <v>302.152398833756</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241549</v>
+        <v>292.2617450366723</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323543</v>
+        <v>230.330399653946</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806762</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.7835602517536</v>
+        <v>41.04519843414952</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761644</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209414</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530426</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441547</v>
+        <v>372.039630846422</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441547</v>
+        <v>372.039630846422</v>
       </c>
       <c r="O6" t="n">
-        <v>29.6935462843643</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688435</v>
+        <v>28.05472287333294</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111149</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846466</v>
+        <v>2.360334637543218</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852987</v>
+        <v>59.1077233810415</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528923</v>
+        <v>72.81487052278392</v>
       </c>
       <c r="N7" t="n">
-        <v>80.2205818636038</v>
+        <v>76.5730071882154</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119678</v>
+        <v>54.54948956140656</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414597</v>
+        <v>22.91824715764939</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35963,22 +35965,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>544.6350560131515</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36437,22 +36439,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36677,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131515</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>747.6947913160968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>329.5684730204362</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>725.3059354206563</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2800937.719109766</v>
+        <v>2793764.430399483</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702197</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>204.9607408318209</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>102.2133755837553</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>28.93353358602091</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>138.7886981022115</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.039630846422</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.039630846422</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>189.0437807884074</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>10.10800033234544</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>181.443212047161</v>
+        <v>242.9546773564033</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.00137801481722</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>56.87637597787398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>66.8690242323346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>140.4147025184292</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.67884460201102</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60.51808258596496</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="G16" t="n">
-        <v>161.8175117958949</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.64589759514801</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>101.2024957585489</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>110.3499369036732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.32280852345892</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.0388904293851</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>96.38718145721396</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>136.1203916976713</v>
       </c>
       <c r="W34" t="n">
-        <v>129.3232997295248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>14.65400481831981</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>185.0891193245234</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003094987734702954</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5530139536553</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>12.5620665112352</v>
       </c>
       <c r="W46" t="n">
-        <v>39.69425409728629</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696339</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696339</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696339</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696339</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4360,22 +4360,22 @@
         <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>858.9304414063566</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>858.9304414063566</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V2" t="n">
-        <v>858.9304414063566</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W2" t="n">
-        <v>579.9844679696339</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X2" t="n">
-        <v>579.9844679696339</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.9844679696339</v>
+        <v>737.4494614202825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346.787280231586</v>
+        <v>492.0145180116817</v>
       </c>
       <c r="C3" t="n">
-        <v>346.787280231586</v>
+        <v>317.5614887305547</v>
       </c>
       <c r="D3" t="n">
-        <v>197.8528705703347</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E3" t="n">
-        <v>197.8528705703347</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>51.31831259721966</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618844</v>
@@ -4409,25 +4409,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3310704112777</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>952.437746559816</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>952.437746559816</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V3" t="n">
-        <v>601.0246369597876</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="W3" t="n">
-        <v>346.787280231586</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="X3" t="n">
-        <v>346.787280231586</v>
+        <v>867.9901537967037</v>
       </c>
       <c r="Y3" t="n">
-        <v>346.787280231586</v>
+        <v>660.2298550317498</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4518,22 +4518,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.5561925090623</v>
+        <v>420.6511211651172</v>
       </c>
       <c r="C5" t="n">
-        <v>975.5561925090623</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="D5" t="n">
-        <v>975.5561925090623</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090623</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934844</v>
+        <v>44.74310347550196</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456877</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039974</v>
+        <v>474.0852112039966</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494158</v>
+        <v>773.2160860494146</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.52377693588</v>
+        <v>1447.523776935877</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V5" t="n">
-        <v>975.5561925090623</v>
+        <v>1157.095636042115</v>
       </c>
       <c r="W5" t="n">
-        <v>975.5561925090623</v>
+        <v>804.3269807720005</v>
       </c>
       <c r="X5" t="n">
-        <v>975.5561925090623</v>
+        <v>430.8612225109206</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.5561925090623</v>
+        <v>420.6511211651172</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.7377172564425</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>406.7377172564425</v>
+        <v>484.4695931075355</v>
       </c>
       <c r="D6" t="n">
-        <v>257.8033075951913</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>257.8033075951913</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771376</v>
+        <v>195.5446164760263</v>
       </c>
       <c r="L6" t="n">
-        <v>314.0811796138499</v>
+        <v>479.8626256221622</v>
       </c>
       <c r="M6" t="n">
-        <v>682.4004141518078</v>
+        <v>479.8626256221622</v>
       </c>
       <c r="N6" t="n">
-        <v>1050.719648689766</v>
+        <v>848.0470181903931</v>
       </c>
       <c r="O6" t="n">
-        <v>1359.034530062085</v>
+        <v>1156.361899562712</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706684</v>
+        <v>1386.808705706682</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107479</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458527</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.017297458527</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V6" t="n">
-        <v>797.8651892267844</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="W6" t="n">
-        <v>614.5892174619753</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>406.7377172564425</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.7377172564425</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888155</v>
+        <v>32.09990175888136</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611263</v>
+        <v>90.61654790611227</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236687</v>
+        <v>162.7032697236682</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840002</v>
+        <v>238.5105468400013</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057945</v>
+        <v>292.5145415057936</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918673</v>
+        <v>257.752721365731</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918673</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.41102704833722</v>
+        <v>29.7631704677137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.420136195577</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259699</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>716.3321714771301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>502.0437482952929</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1326.711790770268</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.711790770268</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1326.711790770268</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.711790770268</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.722239872251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>2786.879505108311</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L15" t="n">
-        <v>3400.7765748652</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M15" t="n">
-        <v>3708.096708145162</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>4037.959335809194</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>4317.499401027892</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.6691235773515</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C16" t="n">
-        <v>260.6691235773515</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D16" t="n">
-        <v>260.6691235773515</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E16" t="n">
-        <v>260.6691235773515</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F16" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188989</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>481.4617027208816</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.6691235773515</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,13 +5539,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5554,10 +5554,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1292.239250356952</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1292.239250356952</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1037.554762151065</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>748.1375921141046</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>748.1375921141046</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,25 +5740,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>874.5376338299834</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5376338299834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5480829319661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>416.5737601579244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>416.5737601579244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>416.5737601579244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>269.683812660014</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858313</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6232,7 +6232,7 @@
         <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1470.594159013069</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.594159013069</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1470.594159013069</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.465520226627</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>926.7810320207402</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>637.3638619837795</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>637.3638619837795</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.5712828402495</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>754.894602230607</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4096.801546389153</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C34" t="n">
-        <v>3927.865363461246</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048911</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4637.069157803799</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W34" t="n">
-        <v>4506.43956211741</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X34" t="n">
-        <v>4278.450011219393</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y34" t="n">
-        <v>4278.450011219393</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,58 +6925,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.9089152986054</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C37" t="n">
-        <v>653.9727323706985</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D37" t="n">
-        <v>653.9727323706985</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7128,19 +7128,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X37" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.9089152986054</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="38">
@@ -7159,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.9798268587604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.838040869491</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.838040869491</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.42087083253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.42087083253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.6282916890001</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7408,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7420,37 +7420,37 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M42" t="n">
         <v>1406.737288300438</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>675.0918571994924</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>524.9752177871567</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>377.0621242047636</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>377.0621242047636</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.8868025245842</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>844.0280401273993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7736,13 +7736,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4018.114580657032</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>4018.114580657032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>3867.997941244696</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3867.997941244696</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746786</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576119</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4460.650830789677</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>4460.650830789677</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="W46" t="n">
-        <v>4420.555624630802</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X46" t="n">
-        <v>4420.555624630802</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y46" t="n">
-        <v>4199.763045487271</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.9430030574977</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>273.3154840463185</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948384</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357574</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835734</v>
+        <v>78.0637224371517</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470458</v>
+        <v>437.4790769372211</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>113.7429398526945</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504729</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>295.3773510571272</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>295.3773510571272</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>19.14409596996984</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>306.1147370139961</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>161.0294784724243</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279802</v>
       </c>
       <c r="G16" t="n">
-        <v>4.676056667482641</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>126.9016634632412</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>124.5071596304883</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>141.7877064201548</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>106.1707599399187</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.92546197440768</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>50.04678118935522</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>116.0172516261567</v>
       </c>
       <c r="W34" t="n">
-        <v>157.1996986070662</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>131.7799578282494</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.49553402757144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2342574108426</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>38.36081441388079</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>239.5755768125928</v>
       </c>
       <c r="W46" t="n">
-        <v>246.8287442393047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778599.9033288052</v>
+        <v>778599.9033288051</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778599.9033288051</v>
+        <v>778599.9033288052</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803344</v>
       </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="O2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703837</v>
+        <v>106137.1517703829</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425211</v>
+        <v>316711.9424252118</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313412</v>
+        <v>24677.24609313392</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817144</v>
+        <v>76496.15793817161</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>308534.3126760299</v>
       </c>
       <c r="C4" t="n">
-        <v>278381.9556177378</v>
+        <v>278381.955617738</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.483517734</v>
+      </c>
+      <c r="F4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.483517734</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773394</v>
@@ -26450,13 +26450,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773395</v>
@@ -26472,25 +26472,25 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.42201485707</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170824.3822518037</v>
+        <v>170824.3822518035</v>
       </c>
       <c r="C6" t="n">
-        <v>213503.8864884482</v>
+        <v>213503.8864884488</v>
       </c>
       <c r="D6" t="n">
-        <v>73913.70854567841</v>
+        <v>73913.70854567739</v>
       </c>
       <c r="E6" t="n">
-        <v>-27933.35036301251</v>
+        <v>-28907.94162273445</v>
       </c>
       <c r="F6" t="n">
-        <v>497226.6861138836</v>
+        <v>496252.0948541619</v>
       </c>
       <c r="G6" t="n">
-        <v>497226.6861138832</v>
+        <v>496252.0948541619</v>
       </c>
       <c r="H6" t="n">
-        <v>497226.6861138835</v>
+        <v>496252.0948541618</v>
       </c>
       <c r="I6" t="n">
-        <v>497226.6861138837</v>
+        <v>496252.0948541618</v>
       </c>
       <c r="J6" t="n">
-        <v>424971.9912427446</v>
+        <v>423997.3999830228</v>
       </c>
       <c r="K6" t="n">
-        <v>472549.4400207493</v>
+        <v>471574.8487610278</v>
       </c>
       <c r="L6" t="n">
-        <v>420730.5281757122</v>
+        <v>419755.9369159902</v>
       </c>
       <c r="M6" t="n">
-        <v>362425.6708800467</v>
+        <v>361451.0796203243</v>
       </c>
       <c r="N6" t="n">
-        <v>497226.6861138836</v>
+        <v>496252.0948541622</v>
       </c>
       <c r="O6" t="n">
-        <v>497226.6861138835</v>
+        <v>496252.0948541622</v>
       </c>
       <c r="P6" t="n">
-        <v>497226.6861138837</v>
+        <v>496252.0948541618</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593889</v>
+        <v>117.5602045593883</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026361</v>
+        <v>82.53894384026299</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576977</v>
+        <v>260.1834596576983</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406579</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406579</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406579</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.722300788862</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>120.2661701862133</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3346548277184</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27517,16 +27517,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>66.98428710126598</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>197.9656075600891</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528941</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128834</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>138.7084776817275</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>376.1299383237081</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>70.25177111375859</v>
+        <v>8.740305804516311</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.8306021671201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358479</v>
+        <v>78.37121764358486</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322665</v>
+        <v>68.41045236322675</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>229.646622358717</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.403867538673</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>29.95250387826587</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>134.9863473781468</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.216253151832116e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28803,25 +28803,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28860,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,10 +30051,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31056,13 +31056,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
         <v>23.72136057081218</v>
@@ -31071,16 +31071,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
         <v>19.08658709192331</v>
@@ -31144,25 +31144,25 @@
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,40 +31199,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
@@ -31241,7 +31241,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246788</v>
+        <v>0.4726038374246763</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025493</v>
+        <v>4.840054050025468</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231495</v>
+        <v>18.22005944231485</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662287</v>
+        <v>40.11165994662266</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480954</v>
+        <v>60.11698038480922</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439507</v>
+        <v>74.58043007439467</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819619</v>
+        <v>82.98509856819575</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127908</v>
+        <v>84.32788422127862</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288742</v>
+        <v>79.62842981288699</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646565</v>
+        <v>67.96102257646528</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869432</v>
+        <v>51.03589764869405</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262801</v>
+        <v>29.68720080262785</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531488</v>
+        <v>10.76945994531482</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326533</v>
+        <v>2.068823298326522</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939743</v>
+        <v>0.0378083069939741</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560442</v>
+        <v>0.2528653456560428</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941269</v>
+        <v>2.442146890941256</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596258</v>
+        <v>8.706109488596212</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182828</v>
+        <v>23.89022987182815</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078324</v>
+        <v>40.83220803078302</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483538</v>
+        <v>54.90394270483509</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486696</v>
+        <v>64.07031148486662</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270949</v>
+        <v>65.76606198270913</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106766</v>
+        <v>60.16309827106734</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496865</v>
+        <v>48.28619043496839</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128732</v>
+        <v>32.27803956128715</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134633</v>
+        <v>15.69983260134624</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707659</v>
+        <v>4.696862889707634</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235923</v>
+        <v>1.019224792359225</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368712</v>
+        <v>0.01663587800368703</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005374</v>
+        <v>0.2119938115005363</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886598</v>
+        <v>1.884817705886588</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761619</v>
+        <v>6.375232076761584</v>
       </c>
       <c r="J7" t="n">
-        <v>14.987962473088</v>
+        <v>14.98796247308792</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342607</v>
+        <v>24.62982646342594</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072536</v>
+        <v>31.51769812072519</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094333</v>
+        <v>33.23099356094315</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898681</v>
+        <v>32.44083480898664</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736688</v>
+        <v>29.96436164736672</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927559</v>
+        <v>25.63968789275576</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846773</v>
+        <v>17.75159088846764</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651435</v>
+        <v>9.532012651651385</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951391</v>
+        <v>3.69447396951389</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477506</v>
+        <v>0.9057917400477458</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912024</v>
+        <v>0.01156329880912018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34786,19 +34786,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>151.8955562274027</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>153.7255638884909</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
         <v>53.79631798062265</v>
@@ -34874,7 +34874,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201035</v>
+        <v>28.16237059201014</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109934</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548583</v>
+        <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337555</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366723</v>
+        <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653946</v>
+        <v>230.3303996539456</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414952</v>
+        <v>41.04519843414925</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690026</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846422</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>372.039630846422</v>
+        <v>371.9034268365969</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
-        <v>28.05472287333294</v>
+        <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111149</v>
+        <v>102.3735532111147</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543218</v>
+        <v>2.360334637543087</v>
       </c>
       <c r="L7" t="n">
-        <v>59.1077233810415</v>
+        <v>59.10772338104133</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278392</v>
+        <v>72.81487052278374</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882154</v>
+        <v>76.57300718821523</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140656</v>
+        <v>54.5494895614064</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764939</v>
+        <v>22.91824715764925</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819975</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>544.6350560131515</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>544.6350560131515</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>329.5684730204362</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>324.1236498972918</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>725.3059354206563</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>616.5391140644624</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -38104,16 +38104,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>
